--- a/elastic_search/llm/model_training_stats.xlsx
+++ b/elastic_search/llm/model_training_stats.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9261538461538461</v>
+        <v>0.8929440389294404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8303448275862069</v>
+        <v>0.8378995433789954</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8756363636363637</v>
+        <v>0.8645465253239105</v>
       </c>
       <c r="E2" t="n">
-        <v>725</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.525096525096525</v>
+        <v>0.5617283950617284</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.674074074074074</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6139954853273137</v>
+        <v>0.6127946127946128</v>
       </c>
       <c r="E3" t="n">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8118811881188119</v>
+        <v>0.7993019197207679</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8118811881188119</v>
+        <v>0.7993019197207679</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8118811881188119</v>
+        <v>0.7993019197207679</v>
       </c>
       <c r="E4" t="n">
-        <v>909</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7256251856251856</v>
+        <v>0.7273362169955844</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7847376311844078</v>
+        <v>0.7559868087265347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7448159244818386</v>
+        <v>0.7386705690592617</v>
       </c>
       <c r="E5" t="n">
-        <v>909</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8449717261598449</v>
+        <v>0.81490893958888</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8118811881188119</v>
+        <v>0.7993019197207679</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8226749537256209</v>
+        <v>0.8052332475028717</v>
       </c>
       <c r="E6" t="n">
-        <v>909</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
